--- a/Data_processed/industry/transport.xlsx
+++ b/Data_processed/industry/transport.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/transport.xlsx
+++ b/Data_processed/industry/transport.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/transport.xlsx
+++ b/Data_processed/industry/transport.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.358662341871</v>
+        <v>1.4152</v>
       </c>
       <c r="E2" t="n">
-        <v>1.4152</v>
+        <v>22.245421</v>
       </c>
       <c r="F2" t="n">
-        <v>22.245421</v>
+        <v>3.9459531e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1605854973257</v>
+        <v>0.5778733333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5778733333333333</v>
+        <v>9.083546800000001</v>
       </c>
       <c r="F3" t="n">
-        <v>9.083546800000001</v>
+        <v>1.6112642e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.05994356715591</v>
+        <v>0.23652368</v>
       </c>
       <c r="E4" t="n">
-        <v>0.23652368</v>
+        <v>3.7178976</v>
       </c>
       <c r="F4" t="n">
-        <v>3.7178976</v>
+        <v>6.5949077e-06</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.02683880157779</v>
+        <v>0.0965805</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0965805</v>
+        <v>1.5181415</v>
       </c>
       <c r="F5" t="n">
-        <v>1.5181415</v>
+        <v>2.6929206e-06</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0358662341871</v>
+        <v>0.14152</v>
       </c>
       <c r="E6" t="n">
-        <v>0.14152</v>
+        <v>2.2245421</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2245421</v>
+        <v>3.9459531e-06</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.01605854973257</v>
+        <v>0.05778733333333334</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05778733333333334</v>
+        <v>0.90835468</v>
       </c>
       <c r="F7" t="n">
-        <v>0.90835468</v>
+        <v>1.6112642e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.01248365897063</v>
+        <v>0.07471068</v>
       </c>
       <c r="E8" t="n">
-        <v>0.07471068</v>
+        <v>1.0351669</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0351669</v>
+        <v>2.0831321e-06</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0014261848204</v>
+        <v>0.007275803333333334</v>
       </c>
       <c r="E9" t="n">
-        <v>0.007275803333333334</v>
+        <v>0.13136651</v>
       </c>
       <c r="F9" t="n">
-        <v>0.13136651</v>
+        <v>2.0286871e-07</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.004984430415300001</v>
+        <v>0.01948636</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01948636</v>
+        <v>0.30290106</v>
       </c>
       <c r="F10" t="n">
-        <v>0.30290106</v>
+        <v>5.4333142e-07</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.0019143420845</v>
+        <v>0.009766179333333333</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009766179333333333</v>
+        <v>0.17633088</v>
       </c>
       <c r="F11" t="n">
-        <v>0.17633088</v>
+        <v>2.7230699e-07</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.008614539285</v>
+        <v>0.04394780600000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04394780600000001</v>
+        <v>0.79348897</v>
       </c>
       <c r="F12" t="n">
-        <v>0.79348897</v>
+        <v>1.2253815e-06</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.05651491725</v>
+        <v>0.220942</v>
       </c>
       <c r="E13" t="n">
-        <v>0.220942</v>
+        <v>3.43438</v>
       </c>
       <c r="F13" t="n">
-        <v>3.43438</v>
+        <v>6.1604492e-06</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.00030674198916</v>
+        <v>0.001039102733333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001039102733333333</v>
+        <v>0.017745774</v>
       </c>
       <c r="F14" t="n">
-        <v>0.017745774</v>
+        <v>2.8972941e-08</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.0219101415824</v>
+        <v>0.07422162</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07422162</v>
+        <v>1.2675553</v>
       </c>
       <c r="F15" t="n">
-        <v>1.2675553</v>
+        <v>2.0694958e-06</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.0255618322235</v>
+        <v>0.08659189333333334</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08659189333333334</v>
+        <v>1.4788145</v>
       </c>
       <c r="F16" t="n">
-        <v>1.4788145</v>
+        <v>2.4144117e-06</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.0089821958215</v>
+        <v>0.03042760533333333</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03042760533333333</v>
+        <v>0.519642</v>
       </c>
       <c r="F17" t="n">
-        <v>0.519642</v>
+        <v>8.4840237e-07</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.008179786321830002</v>
+        <v>0.027709406</v>
       </c>
       <c r="E18" t="n">
-        <v>0.027709406</v>
+        <v>0.47322064</v>
       </c>
       <c r="F18" t="n">
-        <v>0.47322064</v>
+        <v>7.7261176e-07</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0001065461842185</v>
+        <v>0.0002700122</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0002700122</v>
+        <v>0.015340436</v>
       </c>
       <c r="F19" t="n">
-        <v>0.015340436</v>
+        <v>7.528656600000001e-09</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.00761044178459</v>
+        <v>0.019286586</v>
       </c>
       <c r="E20" t="n">
-        <v>0.019286586</v>
+        <v>1.0957454</v>
       </c>
       <c r="F20" t="n">
-        <v>1.0957454</v>
+        <v>5.3776119e-07</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.008878848679809998</v>
+        <v>0.02250101666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02250101666666667</v>
+        <v>1.2783696</v>
       </c>
       <c r="F21" t="n">
-        <v>1.2783696</v>
+        <v>6.2738805e-07</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.0031199468659</v>
+        <v>0.007906653333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.007906653333333333</v>
+        <v>0.44920748</v>
       </c>
       <c r="F22" t="n">
-        <v>0.44920748</v>
+        <v>2.2045847e-07</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.00284123157007</v>
+        <v>0.007200325333333334</v>
       </c>
       <c r="E23" t="n">
-        <v>0.007200325333333334</v>
+        <v>0.40907828</v>
       </c>
       <c r="F23" t="n">
-        <v>0.40907828</v>
+        <v>2.0076418e-07</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.0607083366018175</v>
+        <v>0.24252766</v>
       </c>
       <c r="E24" t="n">
-        <v>0.24252766</v>
+        <v>3.8227162</v>
       </c>
       <c r="F24" t="n">
-        <v>3.8227162</v>
+        <v>6.7623147e-06</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.069431549264624</v>
+        <v>0.2637102266666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2637102266666667</v>
+        <v>4.4007817</v>
       </c>
       <c r="F25" t="n">
-        <v>4.4007817</v>
+        <v>7.3529409e-06</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.08107060883557299</v>
+        <v>0.3093901066666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.3093901066666667</v>
+        <v>5.163085</v>
       </c>
       <c r="F26" t="n">
-        <v>5.163085</v>
+        <v>8.626617099999999e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.0446813157632716</v>
+        <v>0.1769419266666667</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1769419266666667</v>
+        <v>2.7889552</v>
       </c>
       <c r="F27" t="n">
-        <v>2.7889552</v>
+        <v>4.9336105e-06</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.051294610286373</v>
+        <v>0.19252808</v>
       </c>
       <c r="E28" t="n">
-        <v>0.19252808</v>
+        <v>3.212898</v>
       </c>
       <c r="F28" t="n">
-        <v>3.212898</v>
+        <v>5.3681938e-06</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.059791838695538</v>
+        <v>0.2258772</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2258772</v>
+        <v>3.7694262</v>
       </c>
       <c r="F29" t="n">
-        <v>3.7694262</v>
+        <v>6.2980556e-06</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.014265236568</v>
+        <v>0.05985599933333333</v>
       </c>
       <c r="E30" t="n">
-        <v>0.05985599933333333</v>
+        <v>1.5726809</v>
       </c>
       <c r="F30" t="n">
-        <v>1.5726809</v>
+        <v>1.6689441e-06</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.019149529581</v>
+        <v>0.08035017333333333</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08035017333333333</v>
+        <v>2.1111532</v>
       </c>
       <c r="F31" t="n">
-        <v>2.1111532</v>
+        <v>2.240376e-06</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.022483253296</v>
+        <v>0.09433826000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09433826000000001</v>
+        <v>2.4786819</v>
       </c>
       <c r="F32" t="n">
-        <v>2.4786819</v>
+        <v>2.630401e-06</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.014265236568</v>
+        <v>0.05985599933333333</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05985599933333333</v>
+        <v>1.5726809</v>
       </c>
       <c r="F33" t="n">
-        <v>1.5726809</v>
+        <v>1.6689441e-06</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.019149529581</v>
+        <v>0.08035017333333333</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08035017333333333</v>
+        <v>2.1111532</v>
       </c>
       <c r="F34" t="n">
-        <v>2.1111532</v>
+        <v>2.240376e-06</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.022483253296</v>
+        <v>0.09433826000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09433826000000001</v>
+        <v>2.4786819</v>
       </c>
       <c r="F35" t="n">
-        <v>2.4786819</v>
+        <v>2.630401e-06</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.0052621965964</v>
+        <v>0.02013722066666667</v>
       </c>
       <c r="E36" t="n">
-        <v>0.02013722066666667</v>
+        <v>0.31299712</v>
       </c>
       <c r="F36" t="n">
-        <v>0.31299712</v>
+        <v>5.6147914e-07</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.0015085797216505</v>
+        <v>0.005486790333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>0.005486790333333333</v>
+        <v>0.072039884</v>
       </c>
       <c r="F37" t="n">
-        <v>0.072039884</v>
+        <v>1.5298627e-07</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.0009038651036828</v>
+        <v>0.003287408866666667</v>
       </c>
       <c r="E38" t="n">
-        <v>0.003287408866666667</v>
+        <v>0.043162676</v>
       </c>
       <c r="F38" t="n">
-        <v>0.043162676</v>
+        <v>9.1661682e-08</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.003539149666545</v>
+        <v>0.01287208866666667</v>
       </c>
       <c r="E39" t="n">
-        <v>0.01287208866666667</v>
+        <v>0.1690066</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1690066</v>
+        <v>3.5890799e-07</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.003090824313616</v>
+        <v>0.011241504</v>
       </c>
       <c r="E40" t="n">
-        <v>0.011241504</v>
+        <v>0.14759752</v>
       </c>
       <c r="F40" t="n">
-        <v>0.14759752</v>
+        <v>3.1344296e-07</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.0013129876462722</v>
+        <v>0.0047754108</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0047754108</v>
+        <v>0.062699688</v>
       </c>
       <c r="F41" t="n">
-        <v>0.062699688</v>
+        <v>1.3315113e-07</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.0007926632407729999</v>
+        <v>0.002882961333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>0.002882961333333333</v>
+        <v>0.037852403</v>
       </c>
       <c r="F42" t="n">
-        <v>0.037852403</v>
+        <v>8.038461100000001e-08</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.0005386616029378</v>
+        <v>0.001959142933333333</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001959142933333333</v>
+        <v>0.025722949</v>
       </c>
       <c r="F43" t="n">
-        <v>0.025722949</v>
+        <v>5.4626103e-08</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1774,5 +1819,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>